--- a/bioassay_test/Ascochyta_rabiei_phenotyping_form_data.xlsx
+++ b/bioassay_test/Ascochyta_rabiei_phenotyping_form_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau.sharepoint.com/sites/GRDCA.rabieiTender2020/Shared Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="472" documentId="13_ncr:1_{B69B1C11-5624-405C-A33B-F0D19CDB1A74}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{2EC5535D-0307-4EAA-B892-4A0D6240EAB0}"/>
+  <xr:revisionPtr revIDLastSave="474" documentId="13_ncr:1_{B69B1C11-5624-405C-A33B-F0D19CDB1A74}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{53F84A0B-0348-43DE-B77B-8F51A56BE20C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6816" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6851" uniqueCount="216">
   <si>
     <t>ID</t>
   </si>
@@ -871,8 +871,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:X403" totalsRowShown="0">
-  <autoFilter ref="A1:X403" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:X405" totalsRowShown="0">
+  <autoFilter ref="A1:X405" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="6">
       <filters>
         <filter val="1"/>
@@ -1217,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X403"/>
+  <dimension ref="A1:X405"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
@@ -27358,6 +27358,140 @@
         <v>65</v>
       </c>
       <c r="X403" s="6"/>
+    </row>
+    <row r="404" spans="1:24">
+      <c r="A404" s="5">
+        <v>403</v>
+      </c>
+      <c r="B404" s="1">
+        <v>44708.55777777778</v>
+      </c>
+      <c r="C404" s="1">
+        <v>44708.559178240743</v>
+      </c>
+      <c r="D404" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E404" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F404" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G404" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H404" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I404" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J404" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K404" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L404" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M404" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N404" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O404" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P404" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q404" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R404" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S404" s="8"/>
+      <c r="T404" s="5"/>
+      <c r="U404" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="V404" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W404" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X404" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="405" spans="1:24">
+      <c r="A405" s="5">
+        <v>404</v>
+      </c>
+      <c r="B405" s="1">
+        <v>44708.559317129628</v>
+      </c>
+      <c r="C405" s="1">
+        <v>44708.560312499998</v>
+      </c>
+      <c r="D405" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E405" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F405" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G405" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H405" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I405" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J405" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K405" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L405" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M405" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N405" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O405" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P405" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q405" s="6"/>
+      <c r="R405" s="6"/>
+      <c r="S405" s="8"/>
+      <c r="T405" s="5"/>
+      <c r="U405" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="V405" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="W405" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X405" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27416,6 +27550,10 @@
         <AccountType/>
       </UserInfo>
     </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f3c66e0-7684-4412-85ae-938bcfc42664">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
@@ -27430,8 +27568,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8E840779CD5394DB6A0677C69D57CD3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="358320d33f278d9b7f7e34366ecf6985">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f3c66e0-7684-4412-85ae-938bcfc42664" xmlns:ns3="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bd4b1f74759cbf81d0fcc62805ca8ba" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8E840779CD5394DB6A0677C69D57CD3" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7a124c12a779a736f71215d7d4687bf">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f3c66e0-7684-4412-85ae-938bcfc42664" xmlns:ns3="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2155876b7947a55992891bc9fceb70da" ns2:_="" ns3:_="">
     <xsd:import namespace="1f3c66e0-7684-4412-85ae-938bcfc42664"/>
     <xsd:import namespace="9c30d4e8-d9db-43d6-83e2-c08e4749ca29"/>
     <xsd:element name="properties">
@@ -27453,6 +27591,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -27522,6 +27662,13 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d7fcee89-5a73-4a7b-ac3d-7e05f09405fb" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -27551,6 +27698,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{5b0dcb5e-3cf8-47e5-b6b0-eb9332a9b3dc}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9c30d4e8-d9db-43d6-83e2-c08e4749ca29">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -27661,5 +27819,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BCA0B06-48B1-4FF6-90B1-7BC746058616}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A9DFA40-0AE7-44FD-8A5C-899EA7DDEE73}"/>
 </file>
--- a/bioassay_test/Ascochyta_rabiei_phenotyping_form_data.xlsx
+++ b/bioassay_test/Ascochyta_rabiei_phenotyping_form_data.xlsx
@@ -27554,6 +27554,8 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
     <TaxCatchAll xmlns="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
@@ -27568,8 +27570,9 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8E840779CD5394DB6A0677C69D57CD3" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7a124c12a779a736f71215d7d4687bf">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f3c66e0-7684-4412-85ae-938bcfc42664" xmlns:ns3="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2155876b7947a55992891bc9fceb70da" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8E840779CD5394DB6A0677C69D57CD3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="759527f59e11d69b52594aee1565f7b2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1f3c66e0-7684-4412-85ae-938bcfc42664" xmlns:ns3="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cfa3fb632320c027112c736c6f89e4dc" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="1f3c66e0-7684-4412-85ae-938bcfc42664"/>
     <xsd:import namespace="9c30d4e8-d9db-43d6-83e2-c08e4749ca29"/>
     <xsd:element name="properties">
@@ -27593,11 +27596,28 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="24" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="25" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1f3c66e0-7684-4412-85ae-938bcfc42664" elementFormDefault="qualified">
@@ -27668,6 +27688,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="26" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" elementFormDefault="qualified">
@@ -27819,5 +27844,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A9DFA40-0AE7-44FD-8A5C-899EA7DDEE73}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F23F790A-8369-4C0A-92D5-89177304EABF}"/>
 </file>